--- a/Reconcile/PeoplePP.xlsx
+++ b/Reconcile/PeoplePP.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTM\python\msutils\Reconcile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5402BF5-9EB0-4266-BF08-B1292CBEFEC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FE5299-2D82-4294-943A-EDB535B0F2C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465"/>
   </bookViews>
   <sheets>
-    <sheet name="Download (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Download (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="954">
   <si>
     <t>Date</t>
   </si>
@@ -2501,6 +2501,387 @@
   </si>
   <si>
     <t>7GP03772HD011922R</t>
+  </si>
+  <si>
+    <t>4R574094YF974302C</t>
+  </si>
+  <si>
+    <t>9GT61381HV8969422</t>
+  </si>
+  <si>
+    <t>48532237AL940474Y</t>
+  </si>
+  <si>
+    <t>281 Mason Terrace, Brookline, MA, 02446, United States</t>
+  </si>
+  <si>
+    <t>Comedy Night submission</t>
+  </si>
+  <si>
+    <t>katyrumshisky@yahoo.com</t>
+  </si>
+  <si>
+    <t>2MF70243AD625934U</t>
+  </si>
+  <si>
+    <t>71 Colborne Rd, apt GB, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>44861228K4008200U</t>
+  </si>
+  <si>
+    <t>71 Colborne Rd, Apt GB, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>Donation for General Donations Simchat Torah pasukim auction</t>
+  </si>
+  <si>
+    <t>8KK58600KD082612V</t>
+  </si>
+  <si>
+    <t>Donation for General Donations This is on behalf of a friend who would like to remain anonymous.  My friends wants to donate $2</t>
+  </si>
+  <si>
+    <t>Claire Gerstein</t>
+  </si>
+  <si>
+    <t>cgerstein@verizon.net</t>
+  </si>
+  <si>
+    <t>3G843335TY6055448</t>
+  </si>
+  <si>
+    <t>Claire Gerstein, 253 Lincoln Rd, Lincoln, MA, 01773, United States</t>
+  </si>
+  <si>
+    <t>253 Lincoln Rd</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>0L68432798937803A</t>
+  </si>
+  <si>
+    <t>Donation for General Donations Atoh Horeisah Pledge</t>
+  </si>
+  <si>
+    <t>8W8767058Y193123Y</t>
+  </si>
+  <si>
+    <t>Donation for General Donations Yizkor pledge, Aliyah, Simchas Torah bid</t>
+  </si>
+  <si>
+    <t>Joel Sowalsky</t>
+  </si>
+  <si>
+    <t>jsowalsky@rcn.com</t>
+  </si>
+  <si>
+    <t>0X920029D2076005Y</t>
+  </si>
+  <si>
+    <t>12 Stedman St., Unit 1, Brookline, MA, 02446, United States</t>
+  </si>
+  <si>
+    <t>12 Stedman St.</t>
+  </si>
+  <si>
+    <t>1T846220UE855225D</t>
+  </si>
+  <si>
+    <t>2SR16101DT524184N</t>
+  </si>
+  <si>
+    <t>609818117J568472K</t>
+  </si>
+  <si>
+    <t>Donation for Yizkor Yizkors and Yahrzeits</t>
+  </si>
+  <si>
+    <t>6JS49190M70706841</t>
+  </si>
+  <si>
+    <t>94 Westbourne Terrace, Brookline, MA, 02446, United States</t>
+  </si>
+  <si>
+    <t>01H60680150399801</t>
+  </si>
+  <si>
+    <t>Denise Battat</t>
+  </si>
+  <si>
+    <t>denisebattat@comcast.net</t>
+  </si>
+  <si>
+    <t>7TC5509467088902X</t>
+  </si>
+  <si>
+    <t>Denise Battat, 56 Ruane Rd, Newton, MA, 02465-2628, United States</t>
+  </si>
+  <si>
+    <t>56 Ruane Rd</t>
+  </si>
+  <si>
+    <t>02465-2628</t>
+  </si>
+  <si>
+    <t>Joyce Wertheimer</t>
+  </si>
+  <si>
+    <t>joyce@wertheimer.org</t>
+  </si>
+  <si>
+    <t>9S691778986774815</t>
+  </si>
+  <si>
+    <t>Joyce Wertheimer, 55 Rawson Rd., Brookline, MA, 02445, United States</t>
+  </si>
+  <si>
+    <t>55 Rawson Rd.</t>
+  </si>
+  <si>
+    <t>1MA93162U7092502K</t>
+  </si>
+  <si>
+    <t>0GR70211D97942101</t>
+  </si>
+  <si>
+    <t>66U92100G0251751K</t>
+  </si>
+  <si>
+    <t>Yisroel Markov</t>
+  </si>
+  <si>
+    <t>ey.markov@hotmail.com</t>
+  </si>
+  <si>
+    <t>2VW03907H4758033A</t>
+  </si>
+  <si>
+    <t>Yisroel Markov, 64 wallingford road, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>64 wallingford road</t>
+  </si>
+  <si>
+    <t>Dovid Kashnow</t>
+  </si>
+  <si>
+    <t>Morahestherk@gmail.com</t>
+  </si>
+  <si>
+    <t>36P72698T9704405Y</t>
+  </si>
+  <si>
+    <t>188 Chiswick Road, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>188 Chiswick Road</t>
+  </si>
+  <si>
+    <t>57Y16367RV006751D</t>
+  </si>
+  <si>
+    <t>199993150E929322D</t>
+  </si>
+  <si>
+    <t>2DF64308453598354</t>
+  </si>
+  <si>
+    <t>391 Boylston St, Brookline, MA, 02445, United States</t>
+  </si>
+  <si>
+    <t>Emma Brandt</t>
+  </si>
+  <si>
+    <t>eebrandt@gmail.com</t>
+  </si>
+  <si>
+    <t>33E898552R763694B</t>
+  </si>
+  <si>
+    <t>Emma Brandt, 8 Priscilla Road, Unit 1, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>8 Priscilla Road</t>
+  </si>
+  <si>
+    <t>catering by andrew</t>
+  </si>
+  <si>
+    <t>marvin@cateringbyandrew.com</t>
+  </si>
+  <si>
+    <t>3C7697798V523411X</t>
+  </si>
+  <si>
+    <t>Marvin Wiener, 136 Coolidge St, Brookline, MA, 02446-5808, United States</t>
+  </si>
+  <si>
+    <t>136 Coolidge St</t>
+  </si>
+  <si>
+    <t>02446-5808</t>
+  </si>
+  <si>
+    <t>9RE79274FL581604X</t>
+  </si>
+  <si>
+    <t>Donation for General Donations One ticket for the comedy/jazz night</t>
+  </si>
+  <si>
+    <t>39452104LU705894N</t>
+  </si>
+  <si>
+    <t>2C762286A62537838</t>
+  </si>
+  <si>
+    <t>3AU372799U912184T</t>
+  </si>
+  <si>
+    <t>Kimberly Strauss</t>
+  </si>
+  <si>
+    <t>kimberly.h.strauss@gmail.com</t>
+  </si>
+  <si>
+    <t>4CL56535JT427730D</t>
+  </si>
+  <si>
+    <t>Kimberly, Strauss, 99 Chestnut Hill Avenue, Apt. 105, Brighton, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor October simcha sponsorship by Kimberly and Rabbi Jason Strauss in honor of the birth of their son, A</t>
+  </si>
+  <si>
+    <t>99 Chestnut Hill Avenue</t>
+  </si>
+  <si>
+    <t>Apt. 105</t>
+  </si>
+  <si>
+    <t>5HU92081D1330021E</t>
+  </si>
+  <si>
+    <t>0LX71807LP710324N</t>
+  </si>
+  <si>
+    <t>18S75032DY5294819</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor In honor of the engagement of Eli and Miriam</t>
+  </si>
+  <si>
+    <t>2P893380SF808184H</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor This is for the simcha Kiddush in honor of Miriam Sokolow's and Eli Portman's engagement.  (From mys</t>
+  </si>
+  <si>
+    <t>8K817495Y7401214N</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor Andrea and Jonathan Kamens chipping in for Eli and Miriam's kiddush this Shabbat.</t>
+  </si>
+  <si>
+    <t>8GT54994W8168772S</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor This is part of the group for Miriam and Eli's engagement for the simcha kiddush this week.</t>
+  </si>
+  <si>
+    <t>5EF76819CT462343W</t>
+  </si>
+  <si>
+    <t>Donation for General Donations For the Simchat Torah pesukim</t>
+  </si>
+  <si>
+    <t>jay riesel</t>
+  </si>
+  <si>
+    <t>jayriesel@gmail.com</t>
+  </si>
+  <si>
+    <t>2WB530847H8599211</t>
+  </si>
+  <si>
+    <t>jay, riesel, 50 Morseland Ave, Newton, MA, 02459, United States</t>
+  </si>
+  <si>
+    <t>Donation for Dues NCSY Rental for October</t>
+  </si>
+  <si>
+    <t>50 Morseland Ave</t>
+  </si>
+  <si>
+    <t>83887230WD100764N</t>
+  </si>
+  <si>
+    <t>Account Payment RED SOX KIDDUSH</t>
+  </si>
+  <si>
+    <t>5RW12891NR3245422</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor Simchah kiddush contribution for 10-30-18</t>
+  </si>
+  <si>
+    <t>42T17479MF853962K</t>
+  </si>
+  <si>
+    <t>6H914280HS182845D</t>
+  </si>
+  <si>
+    <t>DEBRA R, MILAMED, 7 MT HOOD RD, Apt 5, BRIGHTON, MA, 02135, United States</t>
+  </si>
+  <si>
+    <t>Donation for High Holiday Appeal I paid checks for $18.in Sept. and Oct. clearly marked for High Holiday Appeal payments but th</t>
+  </si>
+  <si>
+    <t>Judith Zara</t>
+  </si>
+  <si>
+    <t>zara02446@yahoo.com</t>
+  </si>
+  <si>
+    <t>89T80278XC644535R</t>
+  </si>
+  <si>
+    <t>Judith, Zara, 62 Dwight Street #4, Brookline, MA, 02446, United States</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor This donation is towards the Nov 10 kiddush</t>
+  </si>
+  <si>
+    <t>62 Dwight Street #4</t>
+  </si>
+  <si>
+    <t>Lewis Schaeffer</t>
+  </si>
+  <si>
+    <t>lewis02446@yahoo.com</t>
+  </si>
+  <si>
+    <t>8FP59929LP535744E</t>
+  </si>
+  <si>
+    <t>Lewis, Schaeffer, 90 Longwood Ave, 3J, Brookline, MA, 02446, United States</t>
+  </si>
+  <si>
+    <t>Donation for Kiddush-donor for the Nov 10 Red Sox kiddush</t>
+  </si>
+  <si>
+    <t>90 Longwood Ave</t>
+  </si>
+  <si>
+    <t>3J</t>
+  </si>
+  <si>
+    <t>7RP6317118019744T</t>
+  </si>
+  <si>
+    <t>Hanukah Malava Malka submission</t>
   </si>
 </sst>
 </file>
@@ -3345,21 +3726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO223"/>
+  <dimension ref="A1:AO270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -21126,6 +21497,9 @@
       <c r="AJ201" t="s">
         <v>55</v>
       </c>
+      <c r="AK201">
+        <v>7077759651</v>
+      </c>
       <c r="AL201" t="s">
         <v>769</v>
       </c>
@@ -21405,6 +21779,9 @@
       <c r="AJ204" t="s">
         <v>55</v>
       </c>
+      <c r="AK204">
+        <v>6176800705</v>
+      </c>
       <c r="AL204" t="s">
         <v>455</v>
       </c>
@@ -21494,6 +21871,9 @@
       <c r="AJ205" t="s">
         <v>55</v>
       </c>
+      <c r="AK205">
+        <v>6176800705</v>
+      </c>
       <c r="AL205" t="s">
         <v>783</v>
       </c>
@@ -21583,6 +21963,9 @@
       <c r="AJ206" t="s">
         <v>55</v>
       </c>
+      <c r="AK206">
+        <v>3102797854</v>
+      </c>
       <c r="AL206" t="s">
         <v>788</v>
       </c>
@@ -21840,6 +22223,9 @@
       <c r="AJ210" t="s">
         <v>748</v>
       </c>
+      <c r="AK210">
+        <v>526177310</v>
+      </c>
       <c r="AL210" t="s">
         <v>799</v>
       </c>
@@ -21929,6 +22315,9 @@
       <c r="AJ211" t="s">
         <v>55</v>
       </c>
+      <c r="AK211">
+        <v>6179218156</v>
+      </c>
       <c r="AL211" t="s">
         <v>769</v>
       </c>
@@ -22021,6 +22410,9 @@
       <c r="AJ212" t="s">
         <v>55</v>
       </c>
+      <c r="AK212">
+        <v>4044448258</v>
+      </c>
       <c r="AL212" t="s">
         <v>83</v>
       </c>
@@ -22113,6 +22505,9 @@
       <c r="AJ213" t="s">
         <v>55</v>
       </c>
+      <c r="AK213">
+        <v>6173192503</v>
+      </c>
       <c r="AL213" t="s">
         <v>423</v>
       </c>
@@ -22202,6 +22597,9 @@
       <c r="AJ214" t="s">
         <v>55</v>
       </c>
+      <c r="AK214">
+        <v>6099039623</v>
+      </c>
       <c r="AL214" t="s">
         <v>811</v>
       </c>
@@ -22383,6 +22781,9 @@
       <c r="AJ216" t="s">
         <v>55</v>
       </c>
+      <c r="AK216">
+        <v>2035301020</v>
+      </c>
       <c r="AL216" t="s">
         <v>811</v>
       </c>
@@ -22475,6 +22876,9 @@
       <c r="AJ217" t="s">
         <v>55</v>
       </c>
+      <c r="AK217">
+        <v>3394403252</v>
+      </c>
       <c r="AL217" t="s">
         <v>811</v>
       </c>
@@ -22564,6 +22968,9 @@
       <c r="AJ218" t="s">
         <v>55</v>
       </c>
+      <c r="AK218">
+        <v>6177947313</v>
+      </c>
       <c r="AL218" t="s">
         <v>811</v>
       </c>
@@ -22929,6 +23336,9 @@
       <c r="AJ222" t="s">
         <v>55</v>
       </c>
+      <c r="AK222">
+        <v>2035301020</v>
+      </c>
       <c r="AL222" t="s">
         <v>455</v>
       </c>
@@ -23018,6 +23428,9 @@
       <c r="AJ223" t="s">
         <v>55</v>
       </c>
+      <c r="AK223">
+        <v>6176800705</v>
+      </c>
       <c r="AL223" t="s">
         <v>455</v>
       </c>
@@ -23025,6 +23438,4216 @@
         <v>56</v>
       </c>
       <c r="AO223" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.36289351851851853</v>
+      </c>
+      <c r="C224" t="s">
+        <v>332</v>
+      </c>
+      <c r="D224" t="s">
+        <v>71</v>
+      </c>
+      <c r="E224" t="s">
+        <v>72</v>
+      </c>
+      <c r="F224" t="s">
+        <v>44</v>
+      </c>
+      <c r="G224" t="s">
+        <v>45</v>
+      </c>
+      <c r="H224">
+        <v>-199.99</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>-199.99</v>
+      </c>
+      <c r="K224" t="s">
+        <v>47</v>
+      </c>
+      <c r="L224" t="s">
+        <v>73</v>
+      </c>
+      <c r="M224" t="s">
+        <v>827</v>
+      </c>
+      <c r="O224" t="s">
+        <v>75</v>
+      </c>
+      <c r="P224" t="s">
+        <v>76</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AD224" s="3">
+        <v>9510.9699999999993</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.87822916666666673</v>
+      </c>
+      <c r="C225" t="s">
+        <v>332</v>
+      </c>
+      <c r="D225" t="s">
+        <v>156</v>
+      </c>
+      <c r="E225" t="s">
+        <v>43</v>
+      </c>
+      <c r="F225" t="s">
+        <v>44</v>
+      </c>
+      <c r="G225" t="s">
+        <v>45</v>
+      </c>
+      <c r="H225">
+        <v>93</v>
+      </c>
+      <c r="I225">
+        <v>-3</v>
+      </c>
+      <c r="J225">
+        <v>90</v>
+      </c>
+      <c r="K225" t="s">
+        <v>157</v>
+      </c>
+      <c r="L225" t="s">
+        <v>47</v>
+      </c>
+      <c r="M225" t="s">
+        <v>828</v>
+      </c>
+      <c r="N225" t="s">
+        <v>159</v>
+      </c>
+      <c r="O225" t="s">
+        <v>50</v>
+      </c>
+      <c r="P225" t="s">
+        <v>769</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>1573521</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AD225" s="3">
+        <v>9600.9699999999993</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI225">
+        <v>2135</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK225">
+        <v>6099039623</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>769</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.90519675925925924</v>
+      </c>
+      <c r="C226" t="s">
+        <v>332</v>
+      </c>
+      <c r="D226" t="s">
+        <v>714</v>
+      </c>
+      <c r="E226" t="s">
+        <v>43</v>
+      </c>
+      <c r="F226" t="s">
+        <v>44</v>
+      </c>
+      <c r="G226" t="s">
+        <v>45</v>
+      </c>
+      <c r="H226">
+        <v>41.5</v>
+      </c>
+      <c r="I226">
+        <v>-1.5</v>
+      </c>
+      <c r="J226">
+        <v>40</v>
+      </c>
+      <c r="K226" t="s">
+        <v>46</v>
+      </c>
+      <c r="L226" t="s">
+        <v>47</v>
+      </c>
+      <c r="M226" t="s">
+        <v>829</v>
+      </c>
+      <c r="N226" t="s">
+        <v>830</v>
+      </c>
+      <c r="O226" t="s">
+        <v>50</v>
+      </c>
+      <c r="P226" t="s">
+        <v>831</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>1573620</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>1896357219663160</v>
+      </c>
+      <c r="AD226" s="3">
+        <v>9640.9699999999993</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI226">
+        <v>2446</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.66024305555555551</v>
+      </c>
+      <c r="C227" t="s">
+        <v>332</v>
+      </c>
+      <c r="D227" t="s">
+        <v>100</v>
+      </c>
+      <c r="E227" t="s">
+        <v>43</v>
+      </c>
+      <c r="F227" t="s">
+        <v>44</v>
+      </c>
+      <c r="G227" t="s">
+        <v>45</v>
+      </c>
+      <c r="H227">
+        <v>154.79</v>
+      </c>
+      <c r="I227">
+        <v>-4.79</v>
+      </c>
+      <c r="J227">
+        <v>150</v>
+      </c>
+      <c r="K227" t="s">
+        <v>832</v>
+      </c>
+      <c r="L227" t="s">
+        <v>47</v>
+      </c>
+      <c r="M227" t="s">
+        <v>833</v>
+      </c>
+      <c r="N227" t="s">
+        <v>834</v>
+      </c>
+      <c r="O227" t="s">
+        <v>50</v>
+      </c>
+      <c r="P227" t="s">
+        <v>397</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>1575897</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>4154569111285340</v>
+      </c>
+      <c r="AD227" s="3">
+        <v>9790.9699999999993</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI227">
+        <v>2135</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.66252314814814817</v>
+      </c>
+      <c r="C228" t="s">
+        <v>332</v>
+      </c>
+      <c r="D228" t="s">
+        <v>100</v>
+      </c>
+      <c r="E228" t="s">
+        <v>43</v>
+      </c>
+      <c r="F228" t="s">
+        <v>44</v>
+      </c>
+      <c r="G228" t="s">
+        <v>45</v>
+      </c>
+      <c r="H228">
+        <v>93</v>
+      </c>
+      <c r="I228">
+        <v>-3</v>
+      </c>
+      <c r="J228">
+        <v>90</v>
+      </c>
+      <c r="K228" t="s">
+        <v>832</v>
+      </c>
+      <c r="L228" t="s">
+        <v>47</v>
+      </c>
+      <c r="M228" t="s">
+        <v>835</v>
+      </c>
+      <c r="N228" t="s">
+        <v>836</v>
+      </c>
+      <c r="O228" t="s">
+        <v>50</v>
+      </c>
+      <c r="P228" t="s">
+        <v>837</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>1575913</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>2147880397541190</v>
+      </c>
+      <c r="AD228" s="3">
+        <v>9880.9699999999993</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI228">
+        <v>2135</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>837</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.8702199074074074</v>
+      </c>
+      <c r="C229" t="s">
+        <v>332</v>
+      </c>
+      <c r="D229" t="s">
+        <v>121</v>
+      </c>
+      <c r="E229" t="s">
+        <v>43</v>
+      </c>
+      <c r="F229" t="s">
+        <v>44</v>
+      </c>
+      <c r="G229" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229">
+        <v>20</v>
+      </c>
+      <c r="I229">
+        <v>-0.88</v>
+      </c>
+      <c r="J229">
+        <v>19.12</v>
+      </c>
+      <c r="K229" t="s">
+        <v>122</v>
+      </c>
+      <c r="L229" t="s">
+        <v>47</v>
+      </c>
+      <c r="M229" t="s">
+        <v>838</v>
+      </c>
+      <c r="N229" t="s">
+        <v>619</v>
+      </c>
+      <c r="O229" t="s">
+        <v>50</v>
+      </c>
+      <c r="P229" t="s">
+        <v>839</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>1576777</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AD229" s="3">
+        <v>9900.09</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI229">
+        <v>2135</v>
+      </c>
+      <c r="AJ229" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK229">
+        <v>2035301020</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.61351851851851846</v>
+      </c>
+      <c r="C230" t="s">
+        <v>332</v>
+      </c>
+      <c r="D230" t="s">
+        <v>840</v>
+      </c>
+      <c r="E230" t="s">
+        <v>43</v>
+      </c>
+      <c r="F230" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230" t="s">
+        <v>45</v>
+      </c>
+      <c r="H230">
+        <v>41.5</v>
+      </c>
+      <c r="I230">
+        <v>-1.5</v>
+      </c>
+      <c r="J230">
+        <v>40</v>
+      </c>
+      <c r="K230" t="s">
+        <v>841</v>
+      </c>
+      <c r="L230" t="s">
+        <v>47</v>
+      </c>
+      <c r="M230" t="s">
+        <v>842</v>
+      </c>
+      <c r="N230" t="s">
+        <v>843</v>
+      </c>
+      <c r="O230" t="s">
+        <v>50</v>
+      </c>
+      <c r="P230" t="s">
+        <v>831</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>1578970</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AD230" s="3">
+        <v>9940.09</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>844</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>845</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI230">
+        <v>1773</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK230">
+        <v>6178995263</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.23868055555555556</v>
+      </c>
+      <c r="C231" t="s">
+        <v>332</v>
+      </c>
+      <c r="D231" t="s">
+        <v>107</v>
+      </c>
+      <c r="E231" t="s">
+        <v>43</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" t="s">
+        <v>45</v>
+      </c>
+      <c r="H231">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="I231">
+        <v>-2.46</v>
+      </c>
+      <c r="J231">
+        <v>72</v>
+      </c>
+      <c r="K231" t="s">
+        <v>108</v>
+      </c>
+      <c r="L231" t="s">
+        <v>47</v>
+      </c>
+      <c r="M231" t="s">
+        <v>846</v>
+      </c>
+      <c r="N231" t="s">
+        <v>670</v>
+      </c>
+      <c r="O231" t="s">
+        <v>50</v>
+      </c>
+      <c r="P231" t="s">
+        <v>847</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>1580505</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>1309504888267000</v>
+      </c>
+      <c r="AD231" s="3">
+        <v>10012.09</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI231">
+        <v>2446</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>847</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.426724537037037</v>
+      </c>
+      <c r="C232" t="s">
+        <v>332</v>
+      </c>
+      <c r="D232" t="s">
+        <v>607</v>
+      </c>
+      <c r="E232" t="s">
+        <v>43</v>
+      </c>
+      <c r="F232" t="s">
+        <v>44</v>
+      </c>
+      <c r="G232" t="s">
+        <v>45</v>
+      </c>
+      <c r="H232">
+        <v>100</v>
+      </c>
+      <c r="I232">
+        <v>-3.2</v>
+      </c>
+      <c r="J232">
+        <v>96.8</v>
+      </c>
+      <c r="K232" t="s">
+        <v>608</v>
+      </c>
+      <c r="L232" t="s">
+        <v>47</v>
+      </c>
+      <c r="M232" t="s">
+        <v>848</v>
+      </c>
+      <c r="N232" t="s">
+        <v>610</v>
+      </c>
+      <c r="O232" t="s">
+        <v>50</v>
+      </c>
+      <c r="P232" t="s">
+        <v>849</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>1580834</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AD232" s="3">
+        <v>10108.89</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>606</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI232">
+        <v>2135</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK232">
+        <v>5089519582</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>849</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.48218749999999999</v>
+      </c>
+      <c r="C233" t="s">
+        <v>332</v>
+      </c>
+      <c r="D233" t="s">
+        <v>850</v>
+      </c>
+      <c r="E233" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233" t="s">
+        <v>44</v>
+      </c>
+      <c r="G233" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233">
+        <v>41.5</v>
+      </c>
+      <c r="I233">
+        <v>-1.5</v>
+      </c>
+      <c r="J233">
+        <v>40</v>
+      </c>
+      <c r="K233" t="s">
+        <v>851</v>
+      </c>
+      <c r="L233" t="s">
+        <v>47</v>
+      </c>
+      <c r="M233" t="s">
+        <v>852</v>
+      </c>
+      <c r="N233" t="s">
+        <v>853</v>
+      </c>
+      <c r="O233" t="s">
+        <v>50</v>
+      </c>
+      <c r="P233" t="s">
+        <v>831</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>1581142</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AD233" s="3">
+        <v>10148.89</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI233">
+        <v>2446</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK233">
+        <v>6177214342</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43380</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.435</v>
+      </c>
+      <c r="C234" t="s">
+        <v>332</v>
+      </c>
+      <c r="D234" t="s">
+        <v>297</v>
+      </c>
+      <c r="E234" t="s">
+        <v>43</v>
+      </c>
+      <c r="F234" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" t="s">
+        <v>45</v>
+      </c>
+      <c r="H234">
+        <v>41.5</v>
+      </c>
+      <c r="I234">
+        <v>-1.5</v>
+      </c>
+      <c r="J234">
+        <v>40</v>
+      </c>
+      <c r="K234" t="s">
+        <v>298</v>
+      </c>
+      <c r="L234" t="s">
+        <v>47</v>
+      </c>
+      <c r="M234" t="s">
+        <v>855</v>
+      </c>
+      <c r="N234" t="s">
+        <v>300</v>
+      </c>
+      <c r="O234" t="s">
+        <v>50</v>
+      </c>
+      <c r="P234" t="s">
+        <v>831</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>1583263</v>
+      </c>
+      <c r="AB234">
+        <v>1</v>
+      </c>
+      <c r="AD234" s="3">
+        <v>10188.89</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ234" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43380</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.6042939814814815</v>
+      </c>
+      <c r="C235" t="s">
+        <v>332</v>
+      </c>
+      <c r="E235" t="s">
+        <v>153</v>
+      </c>
+      <c r="F235" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235" t="s">
+        <v>45</v>
+      </c>
+      <c r="H235" s="3">
+        <v>-9129.19</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" s="3">
+        <v>-9129.19</v>
+      </c>
+      <c r="K235" t="s">
+        <v>47</v>
+      </c>
+      <c r="M235" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD235" s="3">
+        <v>1059.7</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43380</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.82718749999999996</v>
+      </c>
+      <c r="C236" t="s">
+        <v>332</v>
+      </c>
+      <c r="D236" t="s">
+        <v>107</v>
+      </c>
+      <c r="E236" t="s">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="I236">
+        <v>-2.46</v>
+      </c>
+      <c r="J236">
+        <v>72</v>
+      </c>
+      <c r="K236" t="s">
+        <v>108</v>
+      </c>
+      <c r="L236" t="s">
+        <v>47</v>
+      </c>
+      <c r="M236" t="s">
+        <v>857</v>
+      </c>
+      <c r="N236" t="s">
+        <v>670</v>
+      </c>
+      <c r="O236" t="s">
+        <v>50</v>
+      </c>
+      <c r="P236" t="s">
+        <v>858</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>1584022</v>
+      </c>
+      <c r="AB236">
+        <v>1</v>
+      </c>
+      <c r="AC236">
+        <v>4929603208654010</v>
+      </c>
+      <c r="AD236" s="3">
+        <v>1131.7</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI236">
+        <v>2446</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>858</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.26587962962962963</v>
+      </c>
+      <c r="C237" t="s">
+        <v>332</v>
+      </c>
+      <c r="D237" t="s">
+        <v>86</v>
+      </c>
+      <c r="E237" t="s">
+        <v>43</v>
+      </c>
+      <c r="F237" t="s">
+        <v>44</v>
+      </c>
+      <c r="G237" t="s">
+        <v>45</v>
+      </c>
+      <c r="H237">
+        <v>55.92</v>
+      </c>
+      <c r="I237">
+        <v>-1.92</v>
+      </c>
+      <c r="J237">
+        <v>54</v>
+      </c>
+      <c r="K237" t="s">
+        <v>87</v>
+      </c>
+      <c r="L237" t="s">
+        <v>47</v>
+      </c>
+      <c r="M237" t="s">
+        <v>859</v>
+      </c>
+      <c r="N237" t="s">
+        <v>860</v>
+      </c>
+      <c r="O237" t="s">
+        <v>50</v>
+      </c>
+      <c r="P237" t="s">
+        <v>90</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>1584427</v>
+      </c>
+      <c r="AB237">
+        <v>1</v>
+      </c>
+      <c r="AC237">
+        <v>12070915930456</v>
+      </c>
+      <c r="AD237" s="3">
+        <v>1185.7</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI237">
+        <v>2446</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.5750925925925926</v>
+      </c>
+      <c r="C238" t="s">
+        <v>332</v>
+      </c>
+      <c r="D238" t="s">
+        <v>156</v>
+      </c>
+      <c r="E238" t="s">
+        <v>43</v>
+      </c>
+      <c r="F238" t="s">
+        <v>44</v>
+      </c>
+      <c r="G238" t="s">
+        <v>45</v>
+      </c>
+      <c r="H238">
+        <v>20.91</v>
+      </c>
+      <c r="I238">
+        <v>-0.91</v>
+      </c>
+      <c r="J238">
+        <v>20</v>
+      </c>
+      <c r="K238" t="s">
+        <v>157</v>
+      </c>
+      <c r="L238" t="s">
+        <v>47</v>
+      </c>
+      <c r="M238" t="s">
+        <v>861</v>
+      </c>
+      <c r="N238" t="s">
+        <v>159</v>
+      </c>
+      <c r="O238" t="s">
+        <v>50</v>
+      </c>
+      <c r="P238" t="s">
+        <v>831</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>1585403</v>
+      </c>
+      <c r="AB238">
+        <v>1</v>
+      </c>
+      <c r="AD238" s="3">
+        <v>1205.7</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI238">
+        <v>2135</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK238">
+        <v>6099039623</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.58329861111111114</v>
+      </c>
+      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+      <c r="D239" t="s">
+        <v>862</v>
+      </c>
+      <c r="E239" t="s">
+        <v>43</v>
+      </c>
+      <c r="F239" t="s">
+        <v>44</v>
+      </c>
+      <c r="G239" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239">
+        <v>41.5</v>
+      </c>
+      <c r="I239">
+        <v>-1.5</v>
+      </c>
+      <c r="J239">
+        <v>40</v>
+      </c>
+      <c r="K239" t="s">
+        <v>863</v>
+      </c>
+      <c r="L239" t="s">
+        <v>47</v>
+      </c>
+      <c r="M239" t="s">
+        <v>864</v>
+      </c>
+      <c r="N239" t="s">
+        <v>865</v>
+      </c>
+      <c r="O239" t="s">
+        <v>50</v>
+      </c>
+      <c r="P239" t="s">
+        <v>831</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>1585435</v>
+      </c>
+      <c r="AB239">
+        <v>1</v>
+      </c>
+      <c r="AD239" s="3">
+        <v>1245.7</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>867</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK239">
+        <v>6172445159</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.70221064814814815</v>
+      </c>
+      <c r="C240" t="s">
+        <v>332</v>
+      </c>
+      <c r="D240" t="s">
+        <v>868</v>
+      </c>
+      <c r="E240" t="s">
+        <v>43</v>
+      </c>
+      <c r="F240" t="s">
+        <v>44</v>
+      </c>
+      <c r="G240" t="s">
+        <v>45</v>
+      </c>
+      <c r="H240">
+        <v>41.5</v>
+      </c>
+      <c r="I240">
+        <v>-1.5</v>
+      </c>
+      <c r="J240">
+        <v>40</v>
+      </c>
+      <c r="K240" t="s">
+        <v>869</v>
+      </c>
+      <c r="L240" t="s">
+        <v>47</v>
+      </c>
+      <c r="M240" t="s">
+        <v>870</v>
+      </c>
+      <c r="N240" t="s">
+        <v>871</v>
+      </c>
+      <c r="O240" t="s">
+        <v>50</v>
+      </c>
+      <c r="P240" t="s">
+        <v>831</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>1586109</v>
+      </c>
+      <c r="AB240">
+        <v>1</v>
+      </c>
+      <c r="AD240" s="3">
+        <v>1285.7</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>872</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI240">
+        <v>2445</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK240">
+        <v>6173653692</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.81908564814814822</v>
+      </c>
+      <c r="C241" t="s">
+        <v>332</v>
+      </c>
+      <c r="D241" t="s">
+        <v>701</v>
+      </c>
+      <c r="E241" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" t="s">
+        <v>44</v>
+      </c>
+      <c r="G241" t="s">
+        <v>45</v>
+      </c>
+      <c r="H241">
+        <v>41.5</v>
+      </c>
+      <c r="I241">
+        <v>-1.5</v>
+      </c>
+      <c r="J241">
+        <v>40</v>
+      </c>
+      <c r="K241" t="s">
+        <v>702</v>
+      </c>
+      <c r="L241" t="s">
+        <v>47</v>
+      </c>
+      <c r="M241" t="s">
+        <v>873</v>
+      </c>
+      <c r="N241" t="s">
+        <v>704</v>
+      </c>
+      <c r="O241" t="s">
+        <v>50</v>
+      </c>
+      <c r="P241" t="s">
+        <v>831</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>1586549</v>
+      </c>
+      <c r="AB241">
+        <v>1</v>
+      </c>
+      <c r="AD241" s="3">
+        <v>1325.7</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI241">
+        <v>2135</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK241">
+        <v>5164773632</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.84072916666666664</v>
+      </c>
+      <c r="C242" t="s">
+        <v>332</v>
+      </c>
+      <c r="D242" t="s">
+        <v>194</v>
+      </c>
+      <c r="E242" t="s">
+        <v>43</v>
+      </c>
+      <c r="F242" t="s">
+        <v>44</v>
+      </c>
+      <c r="G242" t="s">
+        <v>45</v>
+      </c>
+      <c r="H242">
+        <v>40</v>
+      </c>
+      <c r="I242">
+        <v>-1.46</v>
+      </c>
+      <c r="J242">
+        <v>38.54</v>
+      </c>
+      <c r="K242" t="s">
+        <v>195</v>
+      </c>
+      <c r="L242" t="s">
+        <v>47</v>
+      </c>
+      <c r="M242" t="s">
+        <v>874</v>
+      </c>
+      <c r="N242" t="s">
+        <v>816</v>
+      </c>
+      <c r="O242" t="s">
+        <v>50</v>
+      </c>
+      <c r="P242" t="s">
+        <v>831</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>1586605</v>
+      </c>
+      <c r="AB242">
+        <v>1</v>
+      </c>
+      <c r="AD242" s="3">
+        <v>1364.24</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK242">
+        <v>6177947313</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.97215277777777775</v>
+      </c>
+      <c r="C243" t="s">
+        <v>332</v>
+      </c>
+      <c r="D243" t="s">
+        <v>188</v>
+      </c>
+      <c r="E243" t="s">
+        <v>43</v>
+      </c>
+      <c r="F243" t="s">
+        <v>44</v>
+      </c>
+      <c r="G243" t="s">
+        <v>45</v>
+      </c>
+      <c r="H243">
+        <v>41.5</v>
+      </c>
+      <c r="I243">
+        <v>-1.5</v>
+      </c>
+      <c r="J243">
+        <v>40</v>
+      </c>
+      <c r="K243" t="s">
+        <v>189</v>
+      </c>
+      <c r="L243" t="s">
+        <v>47</v>
+      </c>
+      <c r="M243" t="s">
+        <v>875</v>
+      </c>
+      <c r="N243" t="s">
+        <v>191</v>
+      </c>
+      <c r="O243" t="s">
+        <v>50</v>
+      </c>
+      <c r="P243" t="s">
+        <v>831</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>1586920</v>
+      </c>
+      <c r="AB243">
+        <v>1</v>
+      </c>
+      <c r="AD243" s="3">
+        <v>1404.24</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI243">
+        <v>2135</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK243">
+        <v>6172543224</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO243" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.44981481481481483</v>
+      </c>
+      <c r="C244" t="s">
+        <v>332</v>
+      </c>
+      <c r="D244" t="s">
+        <v>876</v>
+      </c>
+      <c r="E244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F244" t="s">
+        <v>44</v>
+      </c>
+      <c r="G244" t="s">
+        <v>45</v>
+      </c>
+      <c r="H244">
+        <v>41.5</v>
+      </c>
+      <c r="I244">
+        <v>-1.5</v>
+      </c>
+      <c r="J244">
+        <v>40</v>
+      </c>
+      <c r="K244" t="s">
+        <v>877</v>
+      </c>
+      <c r="L244" t="s">
+        <v>47</v>
+      </c>
+      <c r="M244" t="s">
+        <v>878</v>
+      </c>
+      <c r="N244" t="s">
+        <v>879</v>
+      </c>
+      <c r="O244" t="s">
+        <v>50</v>
+      </c>
+      <c r="P244" t="s">
+        <v>831</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>1590063</v>
+      </c>
+      <c r="AB244">
+        <v>1</v>
+      </c>
+      <c r="AD244" s="3">
+        <v>1444.24</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI244">
+        <v>2135</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK244">
+        <v>6173198786</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.81259259259259264</v>
+      </c>
+      <c r="C245" t="s">
+        <v>332</v>
+      </c>
+      <c r="D245" t="s">
+        <v>881</v>
+      </c>
+      <c r="E245" t="s">
+        <v>43</v>
+      </c>
+      <c r="F245" t="s">
+        <v>44</v>
+      </c>
+      <c r="G245" t="s">
+        <v>45</v>
+      </c>
+      <c r="H245">
+        <v>41.5</v>
+      </c>
+      <c r="I245">
+        <v>-1.5</v>
+      </c>
+      <c r="J245">
+        <v>40</v>
+      </c>
+      <c r="K245" t="s">
+        <v>882</v>
+      </c>
+      <c r="L245" t="s">
+        <v>47</v>
+      </c>
+      <c r="M245" t="s">
+        <v>883</v>
+      </c>
+      <c r="N245" t="s">
+        <v>884</v>
+      </c>
+      <c r="O245" t="s">
+        <v>50</v>
+      </c>
+      <c r="P245" t="s">
+        <v>831</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>1591774</v>
+      </c>
+      <c r="AB245">
+        <v>1</v>
+      </c>
+      <c r="AC245">
+        <v>3050828612000570</v>
+      </c>
+      <c r="AD245" s="3">
+        <v>1484.24</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>885</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI245">
+        <v>2135</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.95034722222222223</v>
+      </c>
+      <c r="C246" t="s">
+        <v>332</v>
+      </c>
+      <c r="D246" t="s">
+        <v>621</v>
+      </c>
+      <c r="E246" t="s">
+        <v>43</v>
+      </c>
+      <c r="F246" t="s">
+        <v>44</v>
+      </c>
+      <c r="G246" t="s">
+        <v>45</v>
+      </c>
+      <c r="H246">
+        <v>103.3</v>
+      </c>
+      <c r="I246">
+        <v>-3.3</v>
+      </c>
+      <c r="J246">
+        <v>100</v>
+      </c>
+      <c r="K246" t="s">
+        <v>622</v>
+      </c>
+      <c r="L246" t="s">
+        <v>47</v>
+      </c>
+      <c r="M246" t="s">
+        <v>886</v>
+      </c>
+      <c r="N246" t="s">
+        <v>624</v>
+      </c>
+      <c r="O246" t="s">
+        <v>50</v>
+      </c>
+      <c r="P246" t="s">
+        <v>423</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>1592051</v>
+      </c>
+      <c r="AB246">
+        <v>1</v>
+      </c>
+      <c r="AD246" s="3">
+        <v>1584.24</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>627</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK246">
+        <v>6179218156</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C247" t="s">
+        <v>332</v>
+      </c>
+      <c r="D247" t="s">
+        <v>621</v>
+      </c>
+      <c r="E247" t="s">
+        <v>43</v>
+      </c>
+      <c r="F247" t="s">
+        <v>44</v>
+      </c>
+      <c r="G247" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247">
+        <v>98.15</v>
+      </c>
+      <c r="I247">
+        <v>-3.15</v>
+      </c>
+      <c r="J247">
+        <v>95</v>
+      </c>
+      <c r="K247" t="s">
+        <v>622</v>
+      </c>
+      <c r="L247" t="s">
+        <v>47</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="N247" t="s">
+        <v>624</v>
+      </c>
+      <c r="O247" t="s">
+        <v>50</v>
+      </c>
+      <c r="P247" t="s">
+        <v>423</v>
+      </c>
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>1592059</v>
+      </c>
+      <c r="AB247">
+        <v>1</v>
+      </c>
+      <c r="AD247" s="3">
+        <v>1679.24</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>627</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK247">
+        <v>6179218156</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.99501157407407403</v>
+      </c>
+      <c r="C248" t="s">
+        <v>332</v>
+      </c>
+      <c r="D248" t="s">
+        <v>522</v>
+      </c>
+      <c r="E248" t="s">
+        <v>43</v>
+      </c>
+      <c r="F248" t="s">
+        <v>44</v>
+      </c>
+      <c r="G248" t="s">
+        <v>45</v>
+      </c>
+      <c r="H248">
+        <v>41.5</v>
+      </c>
+      <c r="I248">
+        <v>-1.5</v>
+      </c>
+      <c r="J248">
+        <v>40</v>
+      </c>
+      <c r="K248" t="s">
+        <v>523</v>
+      </c>
+      <c r="L248" t="s">
+        <v>47</v>
+      </c>
+      <c r="M248" t="s">
+        <v>888</v>
+      </c>
+      <c r="N248" t="s">
+        <v>889</v>
+      </c>
+      <c r="O248" t="s">
+        <v>50</v>
+      </c>
+      <c r="P248" t="s">
+        <v>831</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>1592107</v>
+      </c>
+      <c r="AB248">
+        <v>1</v>
+      </c>
+      <c r="AD248" s="3">
+        <v>1719.24</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH248" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI248">
+        <v>2445</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK248">
+        <v>3393648383</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.42231481481481481</v>
+      </c>
+      <c r="C249" t="s">
+        <v>332</v>
+      </c>
+      <c r="D249" t="s">
+        <v>890</v>
+      </c>
+      <c r="E249" t="s">
+        <v>43</v>
+      </c>
+      <c r="F249" t="s">
+        <v>44</v>
+      </c>
+      <c r="G249" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249">
+        <v>20</v>
+      </c>
+      <c r="I249">
+        <v>-0.88</v>
+      </c>
+      <c r="J249">
+        <v>19.12</v>
+      </c>
+      <c r="K249" t="s">
+        <v>891</v>
+      </c>
+      <c r="L249" t="s">
+        <v>47</v>
+      </c>
+      <c r="M249" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="N249" t="s">
+        <v>893</v>
+      </c>
+      <c r="O249" t="s">
+        <v>50</v>
+      </c>
+      <c r="P249" t="s">
+        <v>831</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>1592498</v>
+      </c>
+      <c r="AB249">
+        <v>1</v>
+      </c>
+      <c r="AD249" s="3">
+        <v>1738.36</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>894</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI249">
+        <v>2135</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK249">
+        <v>5085616747</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.44019675925925927</v>
+      </c>
+      <c r="C250" t="s">
+        <v>332</v>
+      </c>
+      <c r="D250" t="s">
+        <v>895</v>
+      </c>
+      <c r="E250" t="s">
+        <v>43</v>
+      </c>
+      <c r="F250" t="s">
+        <v>44</v>
+      </c>
+      <c r="G250" t="s">
+        <v>45</v>
+      </c>
+      <c r="H250">
+        <v>41.5</v>
+      </c>
+      <c r="I250">
+        <v>-1.5</v>
+      </c>
+      <c r="J250">
+        <v>40</v>
+      </c>
+      <c r="K250" t="s">
+        <v>896</v>
+      </c>
+      <c r="L250" t="s">
+        <v>47</v>
+      </c>
+      <c r="M250" t="s">
+        <v>897</v>
+      </c>
+      <c r="N250" t="s">
+        <v>898</v>
+      </c>
+      <c r="O250" t="s">
+        <v>50</v>
+      </c>
+      <c r="P250" t="s">
+        <v>831</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>1592560</v>
+      </c>
+      <c r="AB250">
+        <v>1</v>
+      </c>
+      <c r="AD250" s="3">
+        <v>1778.36</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>899</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>900</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK250">
+        <v>6177316585</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.88018518518518529</v>
+      </c>
+      <c r="C251" t="s">
+        <v>332</v>
+      </c>
+      <c r="D251" t="s">
+        <v>660</v>
+      </c>
+      <c r="E251" t="s">
+        <v>43</v>
+      </c>
+      <c r="F251" t="s">
+        <v>44</v>
+      </c>
+      <c r="G251" t="s">
+        <v>45</v>
+      </c>
+      <c r="H251">
+        <v>26.06</v>
+      </c>
+      <c r="I251">
+        <v>-1.06</v>
+      </c>
+      <c r="J251">
+        <v>25</v>
+      </c>
+      <c r="K251" t="s">
+        <v>661</v>
+      </c>
+      <c r="L251" t="s">
+        <v>47</v>
+      </c>
+      <c r="M251" t="s">
+        <v>901</v>
+      </c>
+      <c r="N251" t="s">
+        <v>663</v>
+      </c>
+      <c r="O251" t="s">
+        <v>50</v>
+      </c>
+      <c r="P251" t="s">
+        <v>902</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>1594192</v>
+      </c>
+      <c r="AB251">
+        <v>1</v>
+      </c>
+      <c r="AD251" s="3">
+        <v>1803.36</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>666</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI251">
+        <v>2135</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK251">
+        <v>6177336967</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>902</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.91473379629629636</v>
+      </c>
+      <c r="C252" t="s">
+        <v>332</v>
+      </c>
+      <c r="D252" t="s">
+        <v>220</v>
+      </c>
+      <c r="E252" t="s">
+        <v>43</v>
+      </c>
+      <c r="F252" t="s">
+        <v>44</v>
+      </c>
+      <c r="G252" t="s">
+        <v>45</v>
+      </c>
+      <c r="H252">
+        <v>40</v>
+      </c>
+      <c r="I252">
+        <v>-1.46</v>
+      </c>
+      <c r="J252">
+        <v>38.54</v>
+      </c>
+      <c r="K252" t="s">
+        <v>221</v>
+      </c>
+      <c r="L252" t="s">
+        <v>47</v>
+      </c>
+      <c r="M252" t="s">
+        <v>903</v>
+      </c>
+      <c r="N252" t="s">
+        <v>223</v>
+      </c>
+      <c r="O252" t="s">
+        <v>50</v>
+      </c>
+      <c r="P252" t="s">
+        <v>831</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>1596487</v>
+      </c>
+      <c r="AB252">
+        <v>1</v>
+      </c>
+      <c r="AD252" s="3">
+        <v>1841.9</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK252">
+        <v>8476741594</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.56585648148148149</v>
+      </c>
+      <c r="C253" t="s">
+        <v>332</v>
+      </c>
+      <c r="D253" t="s">
+        <v>708</v>
+      </c>
+      <c r="E253" t="s">
+        <v>43</v>
+      </c>
+      <c r="F253" t="s">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>45</v>
+      </c>
+      <c r="H253">
+        <v>20.91</v>
+      </c>
+      <c r="I253">
+        <v>-0.91</v>
+      </c>
+      <c r="J253">
+        <v>20</v>
+      </c>
+      <c r="K253" t="s">
+        <v>709</v>
+      </c>
+      <c r="L253" t="s">
+        <v>47</v>
+      </c>
+      <c r="M253" t="s">
+        <v>904</v>
+      </c>
+      <c r="N253" t="s">
+        <v>711</v>
+      </c>
+      <c r="O253" t="s">
+        <v>50</v>
+      </c>
+      <c r="P253" t="s">
+        <v>831</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>1597071</v>
+      </c>
+      <c r="AB253">
+        <v>1</v>
+      </c>
+      <c r="AD253" s="3">
+        <v>1861.9</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>713</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI253">
+        <v>2135</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK253">
+        <v>9084037146</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.945775462962963</v>
+      </c>
+      <c r="C254" t="s">
+        <v>332</v>
+      </c>
+      <c r="D254" t="s">
+        <v>621</v>
+      </c>
+      <c r="E254" t="s">
+        <v>43</v>
+      </c>
+      <c r="F254" t="s">
+        <v>44</v>
+      </c>
+      <c r="G254" t="s">
+        <v>45</v>
+      </c>
+      <c r="H254">
+        <v>51.8</v>
+      </c>
+      <c r="I254">
+        <v>-1.8</v>
+      </c>
+      <c r="J254">
+        <v>50</v>
+      </c>
+      <c r="K254" t="s">
+        <v>622</v>
+      </c>
+      <c r="L254" t="s">
+        <v>47</v>
+      </c>
+      <c r="M254" t="s">
+        <v>905</v>
+      </c>
+      <c r="N254" t="s">
+        <v>624</v>
+      </c>
+      <c r="O254" t="s">
+        <v>50</v>
+      </c>
+      <c r="P254" t="s">
+        <v>423</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>1597744</v>
+      </c>
+      <c r="AB254">
+        <v>1</v>
+      </c>
+      <c r="AD254" s="3">
+        <v>1911.9</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>627</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK254">
+        <v>6179218156</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43389</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.60855324074074069</v>
+      </c>
+      <c r="C255" t="s">
+        <v>332</v>
+      </c>
+      <c r="D255" t="s">
+        <v>906</v>
+      </c>
+      <c r="E255" t="s">
+        <v>43</v>
+      </c>
+      <c r="F255" t="s">
+        <v>44</v>
+      </c>
+      <c r="G255" t="s">
+        <v>45</v>
+      </c>
+      <c r="H255">
+        <v>50</v>
+      </c>
+      <c r="I255">
+        <v>-1.75</v>
+      </c>
+      <c r="J255">
+        <v>48.25</v>
+      </c>
+      <c r="K255" t="s">
+        <v>907</v>
+      </c>
+      <c r="L255" t="s">
+        <v>47</v>
+      </c>
+      <c r="M255" t="s">
+        <v>908</v>
+      </c>
+      <c r="N255" t="s">
+        <v>909</v>
+      </c>
+      <c r="O255" t="s">
+        <v>50</v>
+      </c>
+      <c r="P255" t="s">
+        <v>910</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>1602061</v>
+      </c>
+      <c r="AB255">
+        <v>1</v>
+      </c>
+      <c r="AC255">
+        <v>4418445305717010</v>
+      </c>
+      <c r="AD255" s="3">
+        <v>1960.15</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>911</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>912</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI255">
+        <v>2135</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>910</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.82069444444444439</v>
+      </c>
+      <c r="C256" t="s">
+        <v>332</v>
+      </c>
+      <c r="D256" t="s">
+        <v>121</v>
+      </c>
+      <c r="E256" t="s">
+        <v>43</v>
+      </c>
+      <c r="F256" t="s">
+        <v>44</v>
+      </c>
+      <c r="G256" t="s">
+        <v>45</v>
+      </c>
+      <c r="H256">
+        <v>78.58</v>
+      </c>
+      <c r="I256">
+        <v>-2.58</v>
+      </c>
+      <c r="J256">
+        <v>76</v>
+      </c>
+      <c r="K256" t="s">
+        <v>122</v>
+      </c>
+      <c r="L256" t="s">
+        <v>47</v>
+      </c>
+      <c r="M256" t="s">
+        <v>913</v>
+      </c>
+      <c r="N256" t="s">
+        <v>619</v>
+      </c>
+      <c r="O256" t="s">
+        <v>50</v>
+      </c>
+      <c r="P256" t="s">
+        <v>455</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>1611168</v>
+      </c>
+      <c r="AB256">
+        <v>1</v>
+      </c>
+      <c r="AD256" s="3">
+        <v>2036.15</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI256">
+        <v>2135</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK256">
+        <v>2035301020</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.65195601851851859</v>
+      </c>
+      <c r="C257" t="s">
+        <v>332</v>
+      </c>
+      <c r="E257" t="s">
+        <v>153</v>
+      </c>
+      <c r="F257" t="s">
+        <v>44</v>
+      </c>
+      <c r="G257" t="s">
+        <v>45</v>
+      </c>
+      <c r="H257" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K257" t="s">
+        <v>47</v>
+      </c>
+      <c r="M257" t="s">
+        <v>914</v>
+      </c>
+      <c r="AD257" s="3">
+        <v>1036.1500000000001</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B258" s="2">
+        <v>6.0069444444444441E-3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>332</v>
+      </c>
+      <c r="D258" t="s">
+        <v>156</v>
+      </c>
+      <c r="E258" t="s">
+        <v>43</v>
+      </c>
+      <c r="F258" t="s">
+        <v>44</v>
+      </c>
+      <c r="G258" t="s">
+        <v>45</v>
+      </c>
+      <c r="H258">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="I258">
+        <v>-0.85</v>
+      </c>
+      <c r="J258">
+        <v>18</v>
+      </c>
+      <c r="K258" t="s">
+        <v>157</v>
+      </c>
+      <c r="L258" t="s">
+        <v>47</v>
+      </c>
+      <c r="M258" t="s">
+        <v>915</v>
+      </c>
+      <c r="N258" t="s">
+        <v>159</v>
+      </c>
+      <c r="O258" t="s">
+        <v>50</v>
+      </c>
+      <c r="P258" t="s">
+        <v>916</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>1615274</v>
+      </c>
+      <c r="AB258">
+        <v>1</v>
+      </c>
+      <c r="AD258" s="3">
+        <v>1054.1500000000001</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI258">
+        <v>2135</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK258">
+        <v>6099039623</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>916</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.4251388888888889</v>
+      </c>
+      <c r="C259" t="s">
+        <v>332</v>
+      </c>
+      <c r="D259" t="s">
+        <v>121</v>
+      </c>
+      <c r="E259" t="s">
+        <v>43</v>
+      </c>
+      <c r="F259" t="s">
+        <v>44</v>
+      </c>
+      <c r="G259" t="s">
+        <v>45</v>
+      </c>
+      <c r="H259">
+        <v>99.18</v>
+      </c>
+      <c r="I259">
+        <v>-3.18</v>
+      </c>
+      <c r="J259">
+        <v>96</v>
+      </c>
+      <c r="K259" t="s">
+        <v>122</v>
+      </c>
+      <c r="L259" t="s">
+        <v>47</v>
+      </c>
+      <c r="M259" t="s">
+        <v>917</v>
+      </c>
+      <c r="N259" t="s">
+        <v>619</v>
+      </c>
+      <c r="O259" t="s">
+        <v>50</v>
+      </c>
+      <c r="P259" t="s">
+        <v>918</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>1615626</v>
+      </c>
+      <c r="AB259">
+        <v>1</v>
+      </c>
+      <c r="AD259" s="3">
+        <v>1150.1500000000001</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI259">
+        <v>2135</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK259">
+        <v>2035301020</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>918</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.42802083333333335</v>
+      </c>
+      <c r="C260" t="s">
+        <v>332</v>
+      </c>
+      <c r="D260" t="s">
+        <v>292</v>
+      </c>
+      <c r="E260" t="s">
+        <v>43</v>
+      </c>
+      <c r="F260" t="s">
+        <v>44</v>
+      </c>
+      <c r="G260" t="s">
+        <v>45</v>
+      </c>
+      <c r="H260">
+        <v>18</v>
+      </c>
+      <c r="I260">
+        <v>-0.82</v>
+      </c>
+      <c r="J260">
+        <v>17.18</v>
+      </c>
+      <c r="K260" t="s">
+        <v>293</v>
+      </c>
+      <c r="L260" t="s">
+        <v>47</v>
+      </c>
+      <c r="M260" t="s">
+        <v>919</v>
+      </c>
+      <c r="N260" t="s">
+        <v>295</v>
+      </c>
+      <c r="O260" t="s">
+        <v>50</v>
+      </c>
+      <c r="P260" t="s">
+        <v>920</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>1615639</v>
+      </c>
+      <c r="AB260">
+        <v>1</v>
+      </c>
+      <c r="AC260">
+        <v>3773783052597840</v>
+      </c>
+      <c r="AD260" s="3">
+        <v>1167.33</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI260">
+        <v>2135</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>920</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43397</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="C261" t="s">
+        <v>332</v>
+      </c>
+      <c r="D261" t="s">
+        <v>701</v>
+      </c>
+      <c r="E261" t="s">
+        <v>43</v>
+      </c>
+      <c r="F261" t="s">
+        <v>44</v>
+      </c>
+      <c r="G261" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261">
+        <v>26.06</v>
+      </c>
+      <c r="I261">
+        <v>-1.06</v>
+      </c>
+      <c r="J261">
+        <v>25</v>
+      </c>
+      <c r="K261" t="s">
+        <v>702</v>
+      </c>
+      <c r="L261" t="s">
+        <v>47</v>
+      </c>
+      <c r="M261" t="s">
+        <v>921</v>
+      </c>
+      <c r="N261" t="s">
+        <v>704</v>
+      </c>
+      <c r="O261" t="s">
+        <v>50</v>
+      </c>
+      <c r="P261" t="s">
+        <v>922</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>1619251</v>
+      </c>
+      <c r="AB261">
+        <v>1</v>
+      </c>
+      <c r="AD261" s="3">
+        <v>1192.33</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI261">
+        <v>2135</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK261">
+        <v>5164773632</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>922</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43402</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.9347685185185185</v>
+      </c>
+      <c r="C262" t="s">
+        <v>332</v>
+      </c>
+      <c r="D262" t="s">
+        <v>701</v>
+      </c>
+      <c r="E262" t="s">
+        <v>43</v>
+      </c>
+      <c r="F262" t="s">
+        <v>44</v>
+      </c>
+      <c r="G262" t="s">
+        <v>45</v>
+      </c>
+      <c r="H262">
+        <v>148.61000000000001</v>
+      </c>
+      <c r="I262">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="J262">
+        <v>144</v>
+      </c>
+      <c r="K262" t="s">
+        <v>702</v>
+      </c>
+      <c r="L262" t="s">
+        <v>47</v>
+      </c>
+      <c r="M262" t="s">
+        <v>923</v>
+      </c>
+      <c r="N262" t="s">
+        <v>704</v>
+      </c>
+      <c r="O262" t="s">
+        <v>50</v>
+      </c>
+      <c r="P262" t="s">
+        <v>924</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>1628360</v>
+      </c>
+      <c r="AB262">
+        <v>1</v>
+      </c>
+      <c r="AD262" s="3">
+        <v>1336.33</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI262">
+        <v>2135</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK262">
+        <v>5164773632</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>924</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>43402</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.98381944444444447</v>
+      </c>
+      <c r="C263" t="s">
+        <v>332</v>
+      </c>
+      <c r="D263" t="s">
+        <v>925</v>
+      </c>
+      <c r="E263" t="s">
+        <v>43</v>
+      </c>
+      <c r="F263" t="s">
+        <v>44</v>
+      </c>
+      <c r="G263" t="s">
+        <v>45</v>
+      </c>
+      <c r="H263">
+        <v>500</v>
+      </c>
+      <c r="I263">
+        <v>-14.8</v>
+      </c>
+      <c r="J263">
+        <v>485.2</v>
+      </c>
+      <c r="K263" t="s">
+        <v>926</v>
+      </c>
+      <c r="L263" t="s">
+        <v>47</v>
+      </c>
+      <c r="M263" t="s">
+        <v>927</v>
+      </c>
+      <c r="N263" t="s">
+        <v>928</v>
+      </c>
+      <c r="O263" t="s">
+        <v>50</v>
+      </c>
+      <c r="P263" t="s">
+        <v>929</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>1628444</v>
+      </c>
+      <c r="AB263">
+        <v>1</v>
+      </c>
+      <c r="AD263" s="3">
+        <v>1821.53</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI263">
+        <v>2459</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK263">
+        <v>5512656141</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>929</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.3739467592592593</v>
+      </c>
+      <c r="C264" t="s">
+        <v>332</v>
+      </c>
+      <c r="D264" t="s">
+        <v>297</v>
+      </c>
+      <c r="E264" t="s">
+        <v>43</v>
+      </c>
+      <c r="F264" t="s">
+        <v>44</v>
+      </c>
+      <c r="G264" t="s">
+        <v>45</v>
+      </c>
+      <c r="H264">
+        <v>40</v>
+      </c>
+      <c r="I264">
+        <v>-1.46</v>
+      </c>
+      <c r="J264">
+        <v>38.54</v>
+      </c>
+      <c r="K264" t="s">
+        <v>298</v>
+      </c>
+      <c r="L264" t="s">
+        <v>47</v>
+      </c>
+      <c r="M264" t="s">
+        <v>931</v>
+      </c>
+      <c r="N264" t="s">
+        <v>300</v>
+      </c>
+      <c r="O264" t="s">
+        <v>50</v>
+      </c>
+      <c r="P264" t="s">
+        <v>932</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>1628641</v>
+      </c>
+      <c r="AB264">
+        <v>1</v>
+      </c>
+      <c r="AD264" s="3">
+        <v>1860.07</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>932</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0.84608796296296296</v>
+      </c>
+      <c r="C265" t="s">
+        <v>332</v>
+      </c>
+      <c r="D265" t="s">
+        <v>323</v>
+      </c>
+      <c r="E265" t="s">
+        <v>43</v>
+      </c>
+      <c r="F265" t="s">
+        <v>44</v>
+      </c>
+      <c r="G265" t="s">
+        <v>45</v>
+      </c>
+      <c r="H265">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="I265">
+        <v>-0.85</v>
+      </c>
+      <c r="J265">
+        <v>18</v>
+      </c>
+      <c r="K265" t="s">
+        <v>324</v>
+      </c>
+      <c r="L265" t="s">
+        <v>47</v>
+      </c>
+      <c r="M265" t="s">
+        <v>933</v>
+      </c>
+      <c r="N265" t="s">
+        <v>326</v>
+      </c>
+      <c r="O265" t="s">
+        <v>50</v>
+      </c>
+      <c r="P265" t="s">
+        <v>934</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>1630512</v>
+      </c>
+      <c r="AB265">
+        <v>1</v>
+      </c>
+      <c r="AD265" s="3">
+        <v>1878.07</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI265">
+        <v>2135</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK265">
+        <v>6173192503</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0.38731481481481483</v>
+      </c>
+      <c r="C266" t="s">
+        <v>332</v>
+      </c>
+      <c r="D266" t="s">
+        <v>71</v>
+      </c>
+      <c r="E266" t="s">
+        <v>72</v>
+      </c>
+      <c r="F266" t="s">
+        <v>44</v>
+      </c>
+      <c r="G266" t="s">
+        <v>45</v>
+      </c>
+      <c r="H266">
+        <v>-199.99</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>-199.99</v>
+      </c>
+      <c r="K266" t="s">
+        <v>47</v>
+      </c>
+      <c r="L266" t="s">
+        <v>73</v>
+      </c>
+      <c r="M266" t="s">
+        <v>935</v>
+      </c>
+      <c r="O266" t="s">
+        <v>75</v>
+      </c>
+      <c r="P266" t="s">
+        <v>76</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB266">
+        <v>1</v>
+      </c>
+      <c r="AD266" s="3">
+        <v>1678.08</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.50351851851851859</v>
+      </c>
+      <c r="C267" t="s">
+        <v>332</v>
+      </c>
+      <c r="D267" t="s">
+        <v>128</v>
+      </c>
+      <c r="E267" t="s">
+        <v>43</v>
+      </c>
+      <c r="F267" t="s">
+        <v>44</v>
+      </c>
+      <c r="G267" t="s">
+        <v>45</v>
+      </c>
+      <c r="H267">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="I267">
+        <v>-0.85</v>
+      </c>
+      <c r="J267">
+        <v>18</v>
+      </c>
+      <c r="K267" t="s">
+        <v>129</v>
+      </c>
+      <c r="L267" t="s">
+        <v>47</v>
+      </c>
+      <c r="M267" t="s">
+        <v>936</v>
+      </c>
+      <c r="N267" t="s">
+        <v>937</v>
+      </c>
+      <c r="O267" t="s">
+        <v>50</v>
+      </c>
+      <c r="P267" t="s">
+        <v>938</v>
+      </c>
+      <c r="R267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>1636526</v>
+      </c>
+      <c r="AB267">
+        <v>1</v>
+      </c>
+      <c r="AC267">
+        <v>3650046489843720</v>
+      </c>
+      <c r="AD267" s="3">
+        <v>1696.08</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>730</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI267">
+        <v>2135</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>938</v>
+      </c>
+      <c r="AN267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.79458333333333331</v>
+      </c>
+      <c r="C268" t="s">
+        <v>332</v>
+      </c>
+      <c r="D268" t="s">
+        <v>939</v>
+      </c>
+      <c r="E268" t="s">
+        <v>43</v>
+      </c>
+      <c r="F268" t="s">
+        <v>44</v>
+      </c>
+      <c r="G268" t="s">
+        <v>45</v>
+      </c>
+      <c r="H268">
+        <v>41.5</v>
+      </c>
+      <c r="I268">
+        <v>-1.5</v>
+      </c>
+      <c r="J268">
+        <v>40</v>
+      </c>
+      <c r="K268" t="s">
+        <v>940</v>
+      </c>
+      <c r="L268" t="s">
+        <v>47</v>
+      </c>
+      <c r="M268" t="s">
+        <v>941</v>
+      </c>
+      <c r="N268" t="s">
+        <v>942</v>
+      </c>
+      <c r="O268" t="s">
+        <v>50</v>
+      </c>
+      <c r="P268" t="s">
+        <v>943</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>1637907</v>
+      </c>
+      <c r="AB268">
+        <v>1</v>
+      </c>
+      <c r="AD268" s="3">
+        <v>1736.08</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI268">
+        <v>2446</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK268">
+        <v>8572250987</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>943</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.8025810185185186</v>
+      </c>
+      <c r="C269" t="s">
+        <v>332</v>
+      </c>
+      <c r="D269" t="s">
+        <v>945</v>
+      </c>
+      <c r="E269" t="s">
+        <v>43</v>
+      </c>
+      <c r="F269" t="s">
+        <v>44</v>
+      </c>
+      <c r="G269" t="s">
+        <v>45</v>
+      </c>
+      <c r="H269">
+        <v>20.91</v>
+      </c>
+      <c r="I269">
+        <v>-0.91</v>
+      </c>
+      <c r="J269">
+        <v>20</v>
+      </c>
+      <c r="K269" t="s">
+        <v>946</v>
+      </c>
+      <c r="L269" t="s">
+        <v>47</v>
+      </c>
+      <c r="M269" t="s">
+        <v>947</v>
+      </c>
+      <c r="N269" t="s">
+        <v>948</v>
+      </c>
+      <c r="O269" t="s">
+        <v>50</v>
+      </c>
+      <c r="P269" t="s">
+        <v>949</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>1637912</v>
+      </c>
+      <c r="AB269">
+        <v>1</v>
+      </c>
+      <c r="AC269">
+        <v>600384446707780</v>
+      </c>
+      <c r="AD269" s="3">
+        <v>1756.08</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>950</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>951</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI269">
+        <v>2446</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>949</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43411</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.75638888888888889</v>
+      </c>
+      <c r="C270" t="s">
+        <v>41</v>
+      </c>
+      <c r="D270" t="s">
+        <v>254</v>
+      </c>
+      <c r="E270" t="s">
+        <v>43</v>
+      </c>
+      <c r="F270" t="s">
+        <v>44</v>
+      </c>
+      <c r="G270" t="s">
+        <v>45</v>
+      </c>
+      <c r="H270">
+        <v>40</v>
+      </c>
+      <c r="I270">
+        <v>-1.46</v>
+      </c>
+      <c r="J270">
+        <v>38.54</v>
+      </c>
+      <c r="K270" t="s">
+        <v>255</v>
+      </c>
+      <c r="L270" t="s">
+        <v>47</v>
+      </c>
+      <c r="M270" t="s">
+        <v>952</v>
+      </c>
+      <c r="N270" t="s">
+        <v>257</v>
+      </c>
+      <c r="O270" t="s">
+        <v>50</v>
+      </c>
+      <c r="P270" t="s">
+        <v>953</v>
+      </c>
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="AA270">
+        <v>1646726</v>
+      </c>
+      <c r="AB270">
+        <v>1</v>
+      </c>
+      <c r="AD270" s="3">
+        <v>1794.62</v>
+      </c>
+      <c r="AE270" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI270">
+        <v>2135</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK270">
+        <v>6177837171</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>953</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO270" t="s">
         <v>57</v>
       </c>
     </row>
